--- a/NodeSamples/测试节点/QFLTest.xlsx
+++ b/NodeSamples/测试节点/QFLTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\GeoCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\GeoPyTool\NodeSamples\测试节点\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB092584-82F7-4DB9-A023-AE95F8302C98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF419D5-8C9F-477C-929E-1FA1DDCE6DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13545" yWindow="1710" windowWidth="12210" windowHeight="13185" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="0" windowWidth="21600" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="216">
   <si>
     <t>﻿Suites</t>
   </si>
@@ -706,6 +706,14 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nodes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1268,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9176590-0E35-4504-B930-506A27435CA3}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D21"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1328,19 +1336,19 @@
         <v>100</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="H2" s="2">
         <v>50</v>
       </c>
       <c r="I2" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>183</v>
@@ -1354,31 +1362,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B3" s="12">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C3" s="12">
         <v>0</v>
       </c>
       <c r="D3" s="12">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="H3" s="2">
         <v>50</v>
       </c>
       <c r="I3" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>183</v>
@@ -1387,36 +1395,36 @@
         <v>0.4</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B4" s="12">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12">
         <v>100</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="H4" s="2">
         <v>50</v>
       </c>
       <c r="I4" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>183</v>
@@ -1425,36 +1433,36 @@
         <v>0.4</v>
       </c>
       <c r="L4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>212</v>
+      <c r="A5">
+        <v>1</v>
       </c>
       <c r="B5" s="12">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C5" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="H5" s="2">
         <v>50</v>
       </c>
       <c r="I5" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>183</v>
@@ -1463,36 +1471,36 @@
         <v>0.4</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>213</v>
+      <c r="A6">
+        <v>2</v>
       </c>
       <c r="B6" s="12">
+        <v>87</v>
+      </c>
+      <c r="C6" s="12">
         <v>0</v>
       </c>
-      <c r="C6" s="12">
-        <v>100</v>
-      </c>
       <c r="D6" s="12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="H6" s="2">
         <v>50</v>
       </c>
       <c r="I6" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>183</v>
@@ -1501,36 +1509,36 @@
         <v>0.4</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>213</v>
+      <c r="A7">
+        <v>3</v>
       </c>
       <c r="B7" s="12">
         <v>0</v>
       </c>
       <c r="C7" s="12">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D7" s="12">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="H7" s="2">
         <v>50</v>
       </c>
       <c r="I7" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>183</v>
@@ -1544,31 +1552,31 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" s="12">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" s="12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D8" s="12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="H8" s="2">
         <v>50</v>
       </c>
       <c r="I8" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>183</v>
@@ -1582,31 +1590,31 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" s="12">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="C9" s="12">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="D9" s="12">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="H9" s="2">
         <v>50</v>
       </c>
       <c r="I9" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>183</v>
@@ -1618,33 +1626,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0</v>
-      </c>
-      <c r="C10" s="12">
-        <v>3</v>
-      </c>
-      <c r="D10" s="12">
-        <v>97</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="13">
+        <v>69.338959212376906</v>
+      </c>
+      <c r="C10" s="13">
+        <v>12.7890295358649</v>
+      </c>
+      <c r="D10" s="13">
+        <v>17.872011251758</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="H10" s="2">
         <v>50</v>
       </c>
       <c r="I10" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>183</v>
@@ -1658,31 +1666,31 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B11" s="12">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="C11" s="12">
         <v>0</v>
       </c>
       <c r="D11" s="12">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="H11" s="2">
         <v>50</v>
       </c>
       <c r="I11" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>183</v>
@@ -1696,31 +1704,31 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B12" s="12">
         <v>0</v>
       </c>
       <c r="C12" s="12">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D12" s="12">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="H12" s="2">
         <v>50</v>
       </c>
       <c r="I12" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>183</v>
@@ -1734,31 +1742,31 @@
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B13" s="13">
-        <v>69.338959212376906</v>
+        <v>12.7317073170731</v>
       </c>
       <c r="C13" s="13">
-        <v>12.7890295358649</v>
+        <v>53.780487804878</v>
       </c>
       <c r="D13" s="13">
-        <v>17.872011251758</v>
+        <v>33.487804878048699</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="H13" s="2">
         <v>50</v>
       </c>
       <c r="I13" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>183</v>
@@ -1772,31 +1780,31 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14" s="12">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C14" s="12">
         <v>0</v>
       </c>
       <c r="D14" s="12">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="H14" s="2">
         <v>50</v>
       </c>
       <c r="I14" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>183</v>
@@ -1810,31 +1818,31 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B15" s="12">
         <v>0</v>
       </c>
       <c r="C15" s="12">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="D15" s="12">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="H15" s="2">
         <v>50</v>
       </c>
       <c r="I15" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>183</v>
@@ -1848,31 +1856,31 @@
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B16" s="13">
-        <v>12.7317073170731</v>
+        <v>15.4120879120879</v>
       </c>
       <c r="C16" s="13">
-        <v>53.780487804878</v>
+        <v>5.1758241758241601</v>
       </c>
       <c r="D16" s="13">
-        <v>33.487804878048699</v>
+        <v>79.412087912087898</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="H16" s="2">
         <v>50</v>
       </c>
       <c r="I16" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>183</v>
@@ -1884,33 +1892,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" s="12">
-        <v>18</v>
-      </c>
-      <c r="C17" s="12">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12">
-        <v>82</v>
+        <v>13</v>
+      </c>
+      <c r="B17" s="13">
+        <v>39.826464208242903</v>
+      </c>
+      <c r="C17" s="13">
+        <v>8.6225596529284108</v>
+      </c>
+      <c r="D17" s="13">
+        <v>51.550976138828602</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="H17" s="2">
         <v>50</v>
       </c>
       <c r="I17" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>183</v>
@@ -1922,33 +1930,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18" s="12">
+        <v>14</v>
+      </c>
+      <c r="B18" s="13">
+        <v>50</v>
+      </c>
+      <c r="C18" s="13">
+        <v>50</v>
+      </c>
+      <c r="D18" s="13">
         <v>0</v>
       </c>
-      <c r="C18" s="12">
-        <v>36</v>
-      </c>
-      <c r="D18" s="12">
-        <v>64</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="H18" s="2">
         <v>50</v>
       </c>
       <c r="I18" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>183</v>
@@ -1957,120 +1965,6 @@
         <v>0.4</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19" s="13">
-        <v>15.4120879120879</v>
-      </c>
-      <c r="C19" s="13">
-        <v>5.1758241758241601</v>
-      </c>
-      <c r="D19" s="13">
-        <v>79.412087912087898</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H19" s="2">
-        <v>50</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="L19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20" s="13">
-        <v>39.826464208242903</v>
-      </c>
-      <c r="C20" s="13">
-        <v>8.6225596529284108</v>
-      </c>
-      <c r="D20" s="13">
-        <v>51.550976138828602</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H20" s="2">
-        <v>50</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="L20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21" s="13">
-        <v>50</v>
-      </c>
-      <c r="C21" s="13">
-        <v>50</v>
-      </c>
-      <c r="D21" s="13">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H21" s="2">
-        <v>50</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="L21" t="s">
         <v>16</v>
       </c>
     </row>
